--- a/input/Delta Variante.xlsx
+++ b/input/Delta Variante.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>KW 14</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Alpha (GB)</t>
+  </si>
+  <si>
+    <t>KW 21</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>B1351</t>
+  </si>
+  <si>
+    <t>B16172</t>
   </si>
 </sst>
 </file>
@@ -193,9 +205,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$3:$B$9</c:f>
+              <c:f>Tabelle1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>KW 14</c:v>
                 </c:pt>
@@ -216,16 +228,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KW 20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KW 21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$9</c:f>
+              <c:f>Tabelle1!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -250,9 +265,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$3:$B$9</c:f>
+              <c:f>Tabelle1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>KW 14</c:v>
                 </c:pt>
@@ -273,36 +288,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KW 20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KW 21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$3:$D$9</c:f>
+              <c:f>Tabelle1!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.9</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,9 +349,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$3:$B$9</c:f>
+              <c:f>Tabelle1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>KW 14</c:v>
                 </c:pt>
@@ -351,36 +372,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KW 20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KW 21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$3:$E$9</c:f>
+              <c:f>Tabelle1!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,9 +436,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$3:$B$9</c:f>
+              <c:f>Tabelle1!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>KW 14</c:v>
                 </c:pt>
@@ -432,16 +459,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KW 20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KW 21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$3:$F$9</c:f>
+              <c:f>Tabelle1!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -452,16 +482,19 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1</c:v>
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -478,11 +511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181094400"/>
-        <c:axId val="36257088"/>
+        <c:axId val="183629824"/>
+        <c:axId val="140794624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181094400"/>
+        <c:axId val="183629824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +553,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36257088"/>
+        <c:crossAx val="140794624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -528,7 +561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36257088"/>
+        <c:axId val="140794624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,7 +601,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181094400"/>
+        <c:crossAx val="183629824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -653,7 +686,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$12</c:f>
+              <c:f>Tabelle1!$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -667,9 +700,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$13:$B$19</c:f>
+              <c:f>Tabelle1!$B$16:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>KW 14</c:v>
                 </c:pt>
@@ -690,16 +723,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KW 20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KW 21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$13:$C$19</c:f>
+              <c:f>Tabelle1!$C$16:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -710,7 +746,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$12</c:f>
+              <c:f>Tabelle1!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -724,9 +760,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$13:$B$19</c:f>
+              <c:f>Tabelle1!$B$16:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>KW 14</c:v>
                 </c:pt>
@@ -747,36 +783,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KW 20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KW 21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$13:$D$19</c:f>
+              <c:f>Tabelle1!$D$16:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>74</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,7 +830,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$12</c:f>
+              <c:f>Tabelle1!$E$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -802,9 +844,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$13:$B$19</c:f>
+              <c:f>Tabelle1!$B$16:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>KW 14</c:v>
                 </c:pt>
@@ -825,36 +867,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KW 20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KW 21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$13:$E$19</c:f>
+              <c:f>Tabelle1!$E$16:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,7 +914,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$F$12</c:f>
+              <c:f>Tabelle1!$F$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -883,9 +931,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$13:$B$19</c:f>
+              <c:f>Tabelle1!$B$16:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>KW 14</c:v>
                 </c:pt>
@@ -906,16 +954,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KW 20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KW 21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$13:$F$19</c:f>
+              <c:f>Tabelle1!$F$16:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -923,7 +974,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>55</c:v>
@@ -932,10 +983,13 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,29 +1006,34 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181093888"/>
-        <c:axId val="37158912"/>
+        <c:axId val="183631360"/>
+        <c:axId val="211625088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181093888"/>
+        <c:axId val="183631360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800"/>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -989,7 +1048,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37158912"/>
+        <c:crossAx val="211625088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -997,7 +1056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37158912"/>
+        <c:axId val="211625088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,18 +1064,23 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Infektionszahlen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" vert="horz"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800"/>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1032,7 +1096,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181093888"/>
+        <c:crossAx val="183631360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1117,7 +1181,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$K$12</c:f>
+              <c:f>Tabelle1!$K$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1134,9 +1198,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$13:$B$19</c:f>
+              <c:f>Tabelle1!$B$16:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>KW 14</c:v>
                 </c:pt>
@@ -1157,30 +1221,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KW 20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KW 21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$13:$K$19</c:f>
+              <c:f>Tabelle1!$K$16:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77462476547842396</c:v>
+                  <c:v>0.79578422484134181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96810506566604126</c:v>
+                  <c:v>0.96486854034451497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66111632270168852</c:v>
+                  <c:v>0.7391205802357208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31332082551594748</c:v>
+                  <c:v>0.70693563009972804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29147778785131462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,7 +1262,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$L$12</c:f>
+              <c:f>Tabelle1!$L$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1206,9 +1276,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$13:$B$19</c:f>
+              <c:f>Tabelle1!$B$16:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>KW 14</c:v>
                 </c:pt>
@@ -1229,30 +1299,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KW 20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KW 21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$L$13:$L$19</c:f>
+              <c:f>Tabelle1!$L$16:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62222222222222223</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6</c:v>
+                  <c:v>2.8095238095238093</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0.9285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24444444444444444</c:v>
+                  <c:v>0.59523809523809523</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,7 +1340,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$M$12</c:f>
+              <c:f>Tabelle1!$M$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1278,9 +1354,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$13:$B$19</c:f>
+              <c:f>Tabelle1!$B$16:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>KW 14</c:v>
                 </c:pt>
@@ -1301,30 +1377,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KW 20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KW 21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$M$13:$M$19</c:f>
+              <c:f>Tabelle1!$M$16:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2352941176470589</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5294117647058822</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>2.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,7 +1418,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$12</c:f>
+              <c:f>Tabelle1!$N$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1353,9 +1435,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$13:$B$19</c:f>
+              <c:f>Tabelle1!$B$16:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>KW 14</c:v>
                 </c:pt>
@@ -1376,30 +1458,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KW 20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KW 21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$N$13:$N$19</c:f>
+              <c:f>Tabelle1!$N$16:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8333333333333333</c:v>
+                  <c:v>1.7741935483870968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8666666666666667</c:v>
+                  <c:v>2.774193548387097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>3.4838709677419355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.096774193548387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,29 +1504,34 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185595392"/>
-        <c:axId val="180667520"/>
+        <c:axId val="212440576"/>
+        <c:axId val="211627392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185595392"/>
+        <c:axId val="212440576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800"/>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1453,7 +1546,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180667520"/>
+        <c:crossAx val="211627392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1461,7 +1554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180667520"/>
+        <c:axId val="211627392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,18 +1562,23 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Veränderungsfaktor (0,5 = 50%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" vert="horz"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800"/>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1496,7 +1594,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185595392"/>
+        <c:crossAx val="212440576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,7 +1636,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1614,7 +1712,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306719" cy="6019271"/>
+    <xdr:ext cx="9297865" cy="6008077"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -1924,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N19"/>
+  <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F19"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,6 +2042,17 @@
     <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
@@ -1969,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="E3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F3">
         <v>0.1</v>
@@ -1986,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -2003,10 +2112,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
         <v>0.6</v>
@@ -2020,13 +2129,13 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J6">
         <v>90.2</v>
@@ -2037,10 +2146,10 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="E7">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="F7">
         <v>1.8</v>
@@ -2054,13 +2163,13 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F8">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J8">
         <v>88.2</v>
@@ -2071,247 +2180,294 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
         <v>0.7</v>
       </c>
       <c r="F9">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="J9">
         <v>93.4</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>74</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>3519</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>85</v>
-      </c>
-      <c r="E14">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>3796</v>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>45</v>
-      </c>
-      <c r="E15">
-        <v>17</v>
-      </c>
-      <c r="F15">
-        <v>30</v>
-      </c>
-      <c r="J15">
-        <v>4264</v>
-      </c>
-      <c r="K15">
-        <f>J15/4264</f>
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f>D15/45</f>
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <f>E15/17</f>
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <f>F15/30</f>
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E16">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>3303</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ref="K16:K19" si="0">J16/4264</f>
-        <v>0.77462476547842396</v>
-      </c>
-      <c r="L16">
-        <f>D16/45</f>
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="M16">
-        <f>E16/17</f>
-        <v>2.2352941176470589</v>
-      </c>
-      <c r="N16">
-        <f t="shared" ref="N16:N19" si="1">F16/30</f>
-        <v>1.8333333333333333</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E17">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>4128</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>0.96810506566604126</v>
-      </c>
-      <c r="L17">
-        <f>D17/45</f>
-        <v>2.6</v>
-      </c>
-      <c r="M17">
-        <f>E17/17</f>
-        <v>2.5294117647058822</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
-        <v>2.8666666666666667</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J18">
-        <v>2819</v>
+        <v>4412</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
-        <v>0.66111632270168852</v>
+        <f>J18/4412</f>
+        <v>1</v>
       </c>
       <c r="L18">
-        <f>D18/45</f>
-        <v>0.88888888888888884</v>
+        <f>D18/42</f>
+        <v>1</v>
       </c>
       <c r="M18">
-        <f>E18/17</f>
-        <v>0.82352941176470584</v>
+        <f>E18/9</f>
+        <v>1</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
+        <f>F18/31</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>55</v>
+      </c>
+      <c r="J19">
+        <v>3511</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K23" si="0">J19/4412</f>
+        <v>0.79578422484134181</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L23" si="1">D19/42</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M23" si="2">E19/9</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N23" si="3">F19/31</f>
+        <v>1.7741935483870968</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>118</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>86</v>
+      </c>
+      <c r="J20">
+        <v>4257</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0.96486854034451497</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>2.8095238095238093</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>2.774193548387097</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>39</v>
+      </c>
+      <c r="E21">
         <v>6</v>
       </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>30</v>
-      </c>
-      <c r="J19">
-        <v>1336</v>
-      </c>
-      <c r="K19">
+      <c r="F21">
+        <v>93</v>
+      </c>
+      <c r="J21">
+        <v>3261</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="0"/>
-        <v>0.31332082551594748</v>
-      </c>
-      <c r="L19">
-        <f>D19/45</f>
-        <v>0.24444444444444444</v>
-      </c>
-      <c r="M19">
-        <f>E19/17</f>
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="N19">
+        <v>0.7391205802357208</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>108</v>
+      </c>
+      <c r="J22">
+        <v>3119</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0.70693563009972804</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.59523809523809523</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>2.5555555555555554</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>3.4838709677419355</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>34</v>
+      </c>
+      <c r="J23">
+        <v>1286</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0.29147778785131462</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>1.096774193548387</v>
       </c>
     </row>
   </sheetData>
